--- a/biology/Botanique/Galerina_marginata/Galerina_marginata.xlsx
+++ b/biology/Botanique/Galerina_marginata/Galerina_marginata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galerina marginata, la galère marginée, est une espèce de champignons basidiomycètes vénéneux de l'hémisphère nord du genre Galerina, de la famille des Hymenogastraceae et de l'ordre des Agaricales.
 Les sporophores de ce champignon sont bruns à beiges, perdent leur couleur au séchage, Ils sont hygrophanes. Les lames sont brunâtres et donnent une impression de spores rouille.
@@ -513,11 +525,11 @@
           <t>Toxicité sévère et confusion</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est un classique petit champignon brun et peut être facilement confondu avec plusieurs espèces comestibles. Sa confusion avec Kuehneromyces mutabilis, la Pholiote changeante, peut être très facile[1].
-Pharmacologie
-Espèce extrêmement toxique, il contient parfois six fois plus de substances toxiques que l'amanite phalloïde, dont les amatoxines mortelles[2]. Son ingestion en quantités toxiques provoque des lésions hépatiques sévères accompagnées de vomissements, de diarrhée, d'hypothermie et de mort éventuelle si elle n'est pas traitée rapidement[1]. Environ dix intoxications ont été attribuées à l'espèce désormais regroupée comme Galerina marginata au cours du siècle dernier.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est un classique petit champignon brun et peut être facilement confondu avec plusieurs espèces comestibles. Sa confusion avec Kuehneromyces mutabilis, la Pholiote changeante, peut être très facile.
 </t>
         </is>
       </c>
@@ -543,12 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat</t>
+          <t>Toxicité sévère et confusion</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Galerina marginata est très répandu dans l'hémisphère nord, y compris en Europe, Amérique du Nord et en Asie et a également été trouvé en Australie. Il s'agit d'un champignon poussant principalement sur les bois de conifères en décomposition.
+          <t>Pharmacologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèce extrêmement toxique, il contient parfois six fois plus de substances toxiques que l'amanite phalloïde, dont les amatoxines mortelles. Son ingestion en quantités toxiques provoque des lésions hépatiques sévères accompagnées de vomissements, de diarrhée, d'hypothermie et de mort éventuelle si elle n'est pas traitée rapidement. Environ dix intoxications ont été attribuées à l'espèce désormais regroupée comme Galerina marginata au cours du siècle dernier.
 </t>
         </is>
       </c>
@@ -574,10 +592,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Galerina marginata est très répandu dans l'hémisphère nord, y compris en Europe, Amérique du Nord et en Asie et a également été trouvé en Australie. Il s'agit d'un champignon poussant principalement sur les bois de conifères en décomposition.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Galerina_marginata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Galerina_marginata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyménophore convexe, d'un diamètre de 3 à 5 centimètres. Le stipe mesure de 2 à 6 cm, et porte un petit anneau fragile.
 </t>
